--- a/biology/Zoologie/Finnstick/Finnstick.xlsx
+++ b/biology/Zoologie/Finnstick/Finnstick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le finnstick, ou  bâton finlandais, est comme son nom l'indique, un bâton, usuellement avec une fourche à son bout, sur lequel sont posées les jumelles pour les garder au niveau de l'œil, permettant ainsi de reposer les bras.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cela est utile pour des périodes d'observation longues, comme le suivi de la chasse d'un faucon, l'observation des oiseaux de mer depuis la côte ou sur un bateau. 
 Bâton finlandais (finnstick) est le nom donné par les observateurs d'oiseaux pour désigner un bâton dans le but de supporter des jumelles. Une extrémité du bâton supporte les jumelles et l'autre est reposée sur le ventre de l'ornithologue.
